--- a/resources/NeatMPI Schedule.xlsx
+++ b/resources/NeatMPI Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1CB7CC-9CD7-4795-8DDE-901ABE2CEA34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAEFCBD-0EEA-46E4-BF91-E62EACF29027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -198,10 +198,10 @@
     <t>Abgabe</t>
   </si>
   <si>
-    <t>BA drucken</t>
-  </si>
-  <si>
-    <t>BA abgeben</t>
+    <t>MA drucken</t>
+  </si>
+  <si>
+    <t>MA abgeben</t>
   </si>
 </sst>
 </file>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,7 +997,7 @@
         <v>43990</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f>C23-B23</f>
         <v>14</v>
       </c>
       <c r="N23" s="4"/>
